--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
@@ -1,29 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrken57/Work/UniversalK/project/UniversalK/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+  <si>
+    <t>累計支給額チェックリスト</t>
+  </si>
+  <si>
+    <t>社員</t>
+  </si>
+  <si>
+    <t>健康保険料</t>
+  </si>
+  <si>
+    <t>厚生年金保険料</t>
+  </si>
+  <si>
+    <t>厚生年金基金</t>
+  </si>
+  <si>
+    <t>算定月額　保険料</t>
+  </si>
+  <si>
+    <t>対象月控除　保険料</t>
+  </si>
+  <si>
+    <t>一般保険料</t>
+  </si>
+  <si>
+    <t>介護保険料</t>
+  </si>
+  <si>
+    <t>特定保険料</t>
+  </si>
+  <si>
+    <t>基本保険料</t>
+  </si>
+  <si>
+    <t>子供子育て拠出金</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -45,12 +106,231 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,7 +365,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +377,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +424,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,15 +645,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3">
+        <f ca="1">NOW()</f>
+        <v>42804.394173263892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
@@ -5,15 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrken57/Work/UniversalK/project/UniversalK/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrken57/Work/UniversalK/project/workspace/AsposeCellDemo/src/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="RangeEmployee">Sheet1!$A$12:$Q$12</definedName>
+    <definedName name="RangeFooterEachOffice">Sheet1!$A$13:$Q$13</definedName>
+    <definedName name="RangeOffice">Sheet1!$A$11:$Q$11</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -75,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +94,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7F1F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -266,13 +297,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -283,52 +371,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -337,6 +462,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC7F1F7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -645,269 +775,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="123" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2">
         <f ca="1">NOW()</f>
-        <v>42804.394173263892</v>
+        <v>42807.633532754633</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="18" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="18" t="s">
+      <c r="N8" s="38"/>
+      <c r="O8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21" t="s">
+      <c r="P8" s="38"/>
+      <c r="Q8" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="1:17" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21" t="s">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="8" t="s">
+      <c r="Q9" s="42"/>
+    </row>
+    <row r="10" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="43"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="20"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
@@ -17,6 +17,7 @@
   <definedNames>
     <definedName name="RangeEmployee">Sheet1!$A$12:$Q$12</definedName>
     <definedName name="RangeFooterEachOffice">Sheet1!$A$13:$Q$13</definedName>
+    <definedName name="RangeFooterPage">Sheet1!$A$14:$Q$15</definedName>
     <definedName name="RangeOffice">Sheet1!$A$11:$Q$11</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>累計支給額チェックリスト</t>
   </si>
@@ -71,6 +72,25 @@
   </si>
   <si>
     <t>子供子育て拠出金</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>納入告知額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被保険者徴収額計
+</t>
+  </si>
+  <si>
+    <t>事業主負担</t>
+  </si>
+  <si>
+    <t>子供子育て拠出金…</t>
   </si>
 </sst>
 </file>
@@ -359,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -405,6 +425,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,6 +496,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="123" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:Q10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -819,7 +866,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="2">
         <f ca="1">NOW()</f>
-        <v>42807.633532754633</v>
+        <v>42807.741354745369</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -842,25 +889,25 @@
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -939,68 +986,68 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="36" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="36" t="s">
+      <c r="N8" s="45"/>
+      <c r="O8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="41" t="s">
+      <c r="P8" s="45"/>
+      <c r="Q8" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1031,11 +1078,11 @@
       <c r="L10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="43"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
@@ -1094,11 +1141,40 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14"/>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15"/>
+      <c r="K15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrken57/Work/UniversalK/project/workspace/AsposeCellDemo/src/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nws_tiendd\AppData\Roaming\Skype\My Skype Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,26 +17,23 @@
   <definedNames>
     <definedName name="RangeEmployee">Sheet1!$A$12:$Q$12</definedName>
     <definedName name="RangeFooterEachOffice">Sheet1!$A$13:$Q$13</definedName>
-    <definedName name="RangeFooterPage">Sheet1!$A$14:$Q$15</definedName>
+    <definedName name="RangeFooterPage">Sheet1!$A$14:$Q$14</definedName>
     <definedName name="RangeOffice">Sheet1!$A$11:$Q$11</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>累計支給額チェックリスト</t>
   </si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>子供子育て拠出金…</t>
+  </si>
+  <si>
+    <t>【日通　システム株式会社】　</t>
   </si>
 </sst>
 </file>
@@ -379,29 +379,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -410,42 +397,95 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,27 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,33 +843,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="58" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -866,318 +887,327 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="2">
         <f ca="1">NOW()</f>
-        <v>42807.741354745369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+        <v>42811.403555092591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="43" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="43" t="s">
+      <c r="N8" s="57"/>
+      <c r="O8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="48" t="s">
+      <c r="P8" s="57"/>
+      <c r="Q8" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="43" t="s">
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="43" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46" t="s">
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="49"/>
-    </row>
-    <row r="10" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="11" t="s">
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="33" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="K15" s="31" t="s">
+      <c r="L14" s="45"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="K15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="21">
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="C8:L8"/>
@@ -1193,7 +1223,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="56" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
@@ -1,42 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nws_tiendd\AppData\Roaming\Skype\My Skype Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrken57/Work/UniversalK/project/UniversalK/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RangeEmployee">Sheet1!$A$12:$Q$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$138</definedName>
+    <definedName name="RangeChildRaising">Sheet1!$A$15:$Q$15</definedName>
+    <definedName name="RangeChildRaisingManual">Sheet1!$A$19:$Q$19</definedName>
+    <definedName name="RangeDeliveryNoticeAmount">Sheet1!$A$14:$Q$14</definedName>
+    <definedName name="RangeDeliveryNoticeAmountManual">Sheet1!$A$18:$Q$18</definedName>
+    <definedName name="RangeEmployee">Sheet1!$A$17:$Q$17</definedName>
     <definedName name="RangeFooterEachOffice">Sheet1!$A$13:$Q$13</definedName>
-    <definedName name="RangeFooterPage">Sheet1!$A$14:$Q$14</definedName>
-    <definedName name="RangeOffice">Sheet1!$A$11:$Q$11</definedName>
+    <definedName name="RangeOffice">Sheet1!$A$12:$Q$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>累計支給額チェックリスト</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>社員</t>
   </si>
@@ -66,9 +70,6 @@
   </si>
   <si>
     <t>基本保険料</t>
-  </si>
-  <si>
-    <t>子供子育て拠出金</t>
   </si>
   <si>
     <t>-</t>
@@ -90,7 +91,28 @@
     <t>子供子育て拠出金…</t>
   </si>
   <si>
-    <t>【日通　システム株式会社】　</t>
+    <t>&amp;=HEADER.nameCompany</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.titleReport</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.informationOffice</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.targetYearMonth</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.condition</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.formalCalculation</t>
+  </si>
+  <si>
+    <t>子供子育て拠出金除く</t>
+  </si>
+  <si>
+    <t>子ども。子育て拠出金</t>
   </si>
 </sst>
 </file>
@@ -115,7 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,12 +153,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC7F1F7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -148,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -173,30 +194,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -226,7 +225,9 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -234,6 +235,45 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -247,7 +287,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -257,8 +299,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -268,7 +314,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -281,36 +329,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="hair">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <right style="hair">
         <color auto="1"/>
       </right>
       <top/>
@@ -318,33 +353,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -354,12 +370,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -367,160 +379,189 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,6 +571,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC8F295"/>
       <color rgb="FFC7F1F7"/>
     </mruColors>
   </colors>
@@ -841,389 +883,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="9" customWidth="1"/>
+    <col min="3" max="16" width="11.33203125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>18</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="2">
-        <f ca="1">NOW()</f>
-        <v>42811.403555092591</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="D1" s="39"/>
+      <c r="Q1" s="16">
+        <f ca="1" xml:space="preserve"> NOW()</f>
+        <v>42815.580697337966</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="55" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="55" t="s">
+      <c r="N9" s="44"/>
+      <c r="O9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="55" t="s">
+      <c r="P9" s="44"/>
+      <c r="Q9" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="31" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="55"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="55"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="K14" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="33"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="D18"/>
+      <c r="E18" s="2"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" s="3"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="K15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-    </row>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="37"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:Q4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" firstPageNumber="2" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/SocialInsurance.xlsx
@@ -15,11 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$138</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$136</definedName>
     <definedName name="RangeChildRaising">Sheet1!$A$15:$Q$15</definedName>
-    <definedName name="RangeChildRaisingManual">Sheet1!$A$19:$Q$19</definedName>
+    <definedName name="RangeChildRaisingManual">Sheet1!#REF!</definedName>
     <definedName name="RangeDeliveryNoticeAmount">Sheet1!$A$14:$Q$14</definedName>
-    <definedName name="RangeDeliveryNoticeAmountManual">Sheet1!$A$18:$Q$18</definedName>
+    <definedName name="RangeDeliveryNoticeAmountManual">Sheet1!#REF!</definedName>
     <definedName name="RangeEmployee">Sheet1!$A$17:$Q$17</definedName>
     <definedName name="RangeFooterEachOffice">Sheet1!$A$13:$Q$13</definedName>
     <definedName name="RangeOffice">Sheet1!$A$12:$Q$12</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>社員</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>事業主負担</t>
-  </si>
-  <si>
-    <t>子供子育て拠出金…</t>
   </si>
   <si>
     <t>&amp;=HEADER.nameCompany</t>
@@ -387,17 +384,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -425,126 +416,93 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -560,8 +518,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,390 +853,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M15" activeCellId="3" sqref="C14:D14 H14:I14 M14:N14 M15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="9" customWidth="1"/>
-    <col min="3" max="16" width="11.33203125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="7" customWidth="1"/>
+    <col min="3" max="14" width="11.33203125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="12" style="11" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="Q1" s="12">
+        <f ca="1" xml:space="preserve"> NOW()</f>
+        <v>42842.64956435185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="Q1" s="16">
-        <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>42815.580697337966</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="42" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="42" t="s">
+      <c r="N9" s="36"/>
+      <c r="O9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="55" t="s">
-        <v>23</v>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="56" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="56" t="s">
+      <c r="O10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="56" t="s">
+      <c r="P10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="55"/>
+      <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="55"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="25"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="33" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
+      <c r="B15" s="4"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="2"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18" s="3"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="37"/>
-    </row>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="Q9:Q11"/>
